--- a/excercises/excercises/90.self_flow_well.xlsx
+++ b/excercises/excercises/90.self_flow_well.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5E843D-3B75-46BF-B3CA-5F7DD8A9EF43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E36048-CC36-4856-8C84-FBFA0718C370}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>Q</t>
   </si>
@@ -651,7 +651,10 @@
     <t>Расчет распределения давления в фонтанирующей скважине</t>
   </si>
   <si>
-    <t>Упражнение требует проверки</t>
+    <t>Упражнение 3</t>
+  </si>
+  <si>
+    <t>Влияние ГФ на забойное давление</t>
   </si>
 </sst>
 </file>
@@ -4966,16 +4969,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>182632</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>41266</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160220</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>30061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>49282</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>70401</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5147,16 +5150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>369095</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>391508</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>14707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>508468</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>129901</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>407616</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>85077</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5186,15 +5189,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>440531</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:colOff>216413</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>13307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>579904</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>106089</xdr:rowOff>
+      <xdr:colOff>355786</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>38854</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5952,8 +5955,8 @@
   </sheetPr>
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5988,9 +5991,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>73</v>
-      </c>
+      <c r="A3" s="30"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -7246,7 +7247,7 @@
         <v>141.66057833629336</v>
       </c>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E97" s="27">
         <f t="shared" si="2"/>
         <v>105.5</v>
@@ -7264,7 +7265,7 @@
         <v>141.1055264300561</v>
       </c>
     </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E98" s="27">
         <f t="shared" si="2"/>
         <v>111</v>
@@ -7282,38 +7283,44 @@
         <v>140.63550041068413</v>
       </c>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C100" s="6"/>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C101" s="6"/>
     </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>73</v>
+      </c>
       <c r="C102" s="6"/>
     </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>74</v>
+      </c>
       <c r="C103" s="6"/>
     </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C104" s="6"/>
     </row>
-    <row r="105" spans="3:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C105" s="6"/>
       <c r="I105" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C106" s="6"/>
       <c r="I106" s="28">
         <f>fw_2</f>
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C107" s="6"/>
       <c r="F107" s="15" t="s">
         <v>32</v>
@@ -7328,7 +7335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C108" s="6"/>
       <c r="F108" s="28">
         <v>10</v>
@@ -7346,7 +7353,7 @@
         <v>101.94510953945939</v>
       </c>
     </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C109" s="6"/>
       <c r="F109" s="28">
         <v>50</v>
@@ -7364,7 +7371,7 @@
         <v>151.90876481139983</v>
       </c>
     </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C110" s="6"/>
       <c r="F110" s="28">
         <f>F109+50</f>
@@ -7383,7 +7390,7 @@
         <v>127.58544787009987</v>
       </c>
     </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C111" s="6"/>
       <c r="F111" s="28">
         <f t="shared" ref="F111:F128" si="3">F110+50</f>
@@ -7402,7 +7409,7 @@
         <v>100.28028088968408</v>
       </c>
     </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C112" s="6"/>
       <c r="F112" s="28">
         <f t="shared" si="3"/>

--- a/excercises/excercises/90.self_flow_well.xlsx
+++ b/excercises/excercises/90.self_flow_well.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E36048-CC36-4856-8C84-FBFA0718C370}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C43759-6F6F-4CBD-A313-D522471D6DDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7890" yWindow="1500" windowWidth="21930" windowHeight="17160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="self_flow_well" sheetId="108" r:id="rId1"/>
@@ -60,6 +60,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -5955,8 +5956,8 @@
   </sheetPr>
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5982,7 +5983,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6194,7 +6195,7 @@
       </c>
       <c r="G21" s="11" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -6243,7 +6244,7 @@
       </c>
       <c r="G23" s="31" t="str">
         <f>[1]!well_encode_string(Hmes_,Htube_,Udl_,Dcas_,Dtub_,0,,Twf_,Tbuf_)</f>
-        <v>hperf_m:2000,00000;hpump_m:2000,00000;udl_m:0,00000;d_cas_mm:125,00000;dtub_mm:62,00000;dchoke_mm:0,00000;roughness_m:0,00010;tbh_C:80,00000;twh_C:20,00000;</v>
+        <v>hperf_m:2000.00000;hpump_m:2000.00000;udl_m:0.00000;d_cas_mm:125.00000;dtub_mm:62.00000;dchoke_mm:0.00000;roughness_m:0.00010;tbh_C:80.00000;twh_C:20.00000;</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
@@ -7342,7 +7343,7 @@
       </c>
       <c r="G108" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F108,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:10,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:10.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H108" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G108,,1,,,,,,1)</f>
@@ -7360,7 +7361,7 @@
       </c>
       <c r="G109" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F109,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:50,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:50.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H109" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G109,,1,,,,,,1)</f>
@@ -7379,7 +7380,7 @@
       </c>
       <c r="G110" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F110,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:100,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:100.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H110" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G110,,1,,,,,,1)</f>
@@ -7398,7 +7399,7 @@
       </c>
       <c r="G111" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F111,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:150,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:150.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H111" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G111,,1,,,,,,1)</f>
@@ -7417,7 +7418,7 @@
       </c>
       <c r="G112" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F112,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:200,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:200.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H112" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G112,,1,,,,,,1)</f>
@@ -7436,7 +7437,7 @@
       </c>
       <c r="G113" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F113,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:250,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:250.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H113" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G113,,1,,,,,,1)</f>
@@ -7455,7 +7456,7 @@
       </c>
       <c r="G114" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F114,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:300,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:300.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H114" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G114,,1,,,,,,1)</f>
@@ -7474,7 +7475,7 @@
       </c>
       <c r="G115" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F115,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:350,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:350.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H115" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G115,,1,,,,,,1)</f>
@@ -7493,7 +7494,7 @@
       </c>
       <c r="G116" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F116,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:400,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:400.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H116" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G116,,1,,,,,,1)</f>
@@ -7512,7 +7513,7 @@
       </c>
       <c r="G117" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F117,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:450,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:450.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H117" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G117,,1,,,,,,1)</f>
@@ -7531,7 +7532,7 @@
       </c>
       <c r="G118" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F118,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:500,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:500.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H118" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G118,,1,,,,,,1)</f>
@@ -7550,7 +7551,7 @@
       </c>
       <c r="G119" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F119,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:550,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:550.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H119" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G119,,1,,,,,,1)</f>
@@ -7569,7 +7570,7 @@
       </c>
       <c r="G120" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F120,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:600,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:600.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H120" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G120,,1,,,,,,1)</f>
@@ -7588,7 +7589,7 @@
       </c>
       <c r="G121" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F121,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:650,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:650.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H121" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G121,,1,,,,,,1)</f>
@@ -7606,7 +7607,7 @@
       </c>
       <c r="G122" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F122,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:700,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:700.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H122" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G122,,1,,,,,,1)</f>
@@ -7624,7 +7625,7 @@
       </c>
       <c r="G123" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F123,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:750,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:750.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H123" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G123,,1,,,,,,1)</f>
@@ -7642,7 +7643,7 @@
       </c>
       <c r="G124" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F124,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:800,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:800.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H124" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G124,,1,,,,,,1)</f>
@@ -7660,7 +7661,7 @@
       </c>
       <c r="G125" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F125,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:850,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:850.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H125" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G125,,1,,,,,,1)</f>
@@ -7678,7 +7679,7 @@
       </c>
       <c r="G126" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F126,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:900,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:900.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H126" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G126,,1,,,,,,1)</f>
@@ -7696,7 +7697,7 @@
       </c>
       <c r="G127" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F127,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:950,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:950.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H127" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G127,,1,,,,,,1)</f>
@@ -7717,7 +7718,7 @@
       </c>
       <c r="G128" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F128,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1000,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1000.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
       </c>
       <c r="H128" s="29">
         <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G128,,1,,,,,,1)</f>

--- a/excercises/excercises/90.self_flow_well.xlsx
+++ b/excercises/excercises/90.self_flow_well.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C43759-6F6F-4CBD-A313-D522471D6DDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB43E910-DDF5-4791-AB88-C8EAC6312953}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="1500" windowWidth="21930" windowHeight="17160" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="self_flow_well" sheetId="108" r:id="rId1"/>
@@ -1094,64 +1094,64 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.849543950267655</c:v>
+                  <c:v>23.919082974207917</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.95022557429936</c:v>
+                  <c:v>28.118463156250751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.285580366571935</c:v>
+                  <c:v>32.584405899554511</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.837468142523342</c:v>
+                  <c:v>37.300757654794388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.587027596851925</c:v>
+                  <c:v>42.249912841712224</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.515373778225225</c:v>
+                  <c:v>47.413569804466761</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.604283421037877</c:v>
+                  <c:v>52.773504295733495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.836315194815732</c:v>
+                  <c:v>58.311794844606624</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.194954206284358</c:v>
+                  <c:v>64.011080129314465</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.664883878217353</c:v>
+                  <c:v>69.854935735706931</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.232048069520502</c:v>
+                  <c:v>75.828029104132668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78.883657079134693</c:v>
+                  <c:v>81.916203049332694</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84.608153725441426</c:v>
+                  <c:v>88.106503443920431</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90.395152673799075</c:v>
+                  <c:v>94.387168869531934</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>96.235363335292462</c:v>
+                  <c:v>100.8172836039513</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>102.12050413205137</c:v>
+                  <c:v>107.43416332544071</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>108.04321379534747</c:v>
+                  <c:v>114.22659226990068</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>113.99696364476573</c:v>
+                  <c:v>121.18149417023243</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>119.99263102580271</c:v>
+                  <c:v>128.2890744619144</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>126.06730868002101</c:v>
+                  <c:v>135.53993957236688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,67 +1280,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>19.96405131482814</c:v>
+                  <c:v>19.757708706382058</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.810786160067732</c:v>
+                  <c:v>23.656415294182356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.908778571399534</c:v>
+                  <c:v>27.835985903200218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.241587802605373</c:v>
+                  <c:v>32.282890558072431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.791088185595491</c:v>
+                  <c:v>36.981120808102538</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.538425772608051</c:v>
+                  <c:v>41.913167280819408</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.464718259847146</c:v>
+                  <c:v>47.060785671512278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.551738230869539</c:v>
+                  <c:v>52.405768811071766</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.782039638734553</c:v>
+                  <c:v>57.930191359304658</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.139099806163038</c:v>
+                  <c:v>63.616664081525528</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.607592966640638</c:v>
+                  <c:v>69.448718690165251</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>73.17345301934003</c:v>
+                  <c:v>75.410967757019719</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78.823880021041205</c:v>
+                  <c:v>81.489192401372563</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84.547306625093313</c:v>
+                  <c:v>87.670373323544482</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90.333337661150381</c:v>
+                  <c:v>93.942807410468035</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>96.172673199993852</c:v>
+                  <c:v>100.35539446609654</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>102.05702291834253</c:v>
+                  <c:v>106.95529068281218</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>107.97901744674725</c:v>
+                  <c:v>113.73146318346359</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>113.93212066276871</c:v>
+                  <c:v>120.67086657755249</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>119.92667670356218</c:v>
+                  <c:v>127.76351147587658</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>126</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,653 +1789,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Распределение давления</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>self_flow_well!$J$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>P снизу вверх</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>self_flow_well!$N$49:$N$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>self_flow_well!$C$49:$C$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5EFE-46E5-A745-7E9ECF416951}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>self_flow_well!$M$49:$M$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>self_flow_well!$C$49:$C$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5EFE-46E5-A745-7E9ECF416951}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="215288064"/>
-        <c:axId val="215288640"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="215288064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Давление,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> атм</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="215288640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="215288640"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Глубина,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> м</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="215288064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>IPR</a:t>
             </a:r>
@@ -2718,67 +2071,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>173.07801673762009</c:v>
+                  <c:v>179.70033152892552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>164.78898496627406</c:v>
+                  <c:v>179.0360130099113</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158.42028944955655</c:v>
+                  <c:v>177.4664474619729</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>153.33478443244613</c:v>
+                  <c:v>175.17399496370672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.17008303444416</c:v>
+                  <c:v>172.12503968806871</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>145.70559722908649</c:v>
+                  <c:v>168.14334615162906</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142.80054613893756</c:v>
+                  <c:v>162.9670187909332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140.31498607284021</c:v>
+                  <c:v>156.1816559864738</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>138.18491593247703</c:v>
+                  <c:v>147.57834094602239</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>136.34026373812333</c:v>
+                  <c:v>140.35743095145818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>134.6452653964551</c:v>
+                  <c:v>137.91880123062811</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>132.95294464685875</c:v>
+                  <c:v>137.40688590161284</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>131.55426121298794</c:v>
+                  <c:v>136.96848966867407</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130.2098185958645</c:v>
+                  <c:v>136.59922532366724</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>129.12249485329889</c:v>
+                  <c:v>136.28879730681646</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>127.98840039484058</c:v>
+                  <c:v>136.03326526658881</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>127.25666512610097</c:v>
+                  <c:v>135.82886403313378</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>126.21353194607163</c:v>
+                  <c:v>135.66744169924416</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>125.6444300865617</c:v>
+                  <c:v>135.54693887476597</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>124.94728194136816</c:v>
+                  <c:v>135.46672648245433</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>124.5171542073078</c:v>
+                  <c:v>135.42188615076745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2875,67 +2228,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>180.42346621968539</c:v>
+                  <c:v>185.92767515061317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173.77216482336149</c:v>
+                  <c:v>185.72992439102936</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>168.55537494743996</c:v>
+                  <c:v>184.57515485168386</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>164.32217273902523</c:v>
+                  <c:v>182.76237609926423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>160.83054675450714</c:v>
+                  <c:v>180.30292543347048</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>157.9019021965598</c:v>
+                  <c:v>177.06868034047656</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>155.41661870420032</c:v>
+                  <c:v>172.90595501971879</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.28114892218807</c:v>
+                  <c:v>167.54756750276974</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>151.43377094130412</c:v>
+                  <c:v>160.59447590458342</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>149.82307860613079</c:v>
+                  <c:v>153.65198786177672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>148.41527608758534</c:v>
+                  <c:v>149.90148051805784</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>147.17543009146564</c:v>
+                  <c:v>149.43070693194298</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>146.07513168316441</c:v>
+                  <c:v>149.02034791015311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>145.11489376957354</c:v>
+                  <c:v>148.67544026806425</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>144.24955299766009</c:v>
+                  <c:v>148.38294812370185</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>143.48804411732613</c:v>
+                  <c:v>148.13708449485114</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>142.80020290709768</c:v>
+                  <c:v>147.93573318141691</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>142.20973851397235</c:v>
+                  <c:v>147.77518878199882</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>141.66057833629336</c:v>
+                  <c:v>147.64917999620883</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>141.1055264300561</c:v>
+                  <c:v>147.55866942270262</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>140.63550041068413</c:v>
+                  <c:v>147.49816486055403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +2568,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3364,67 +2717,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>75.479647003053429</c:v>
+                  <c:v>165.57980415121389</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138.87964920963614</c:v>
+                  <c:v>145.69559476319762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.79366394262878</c:v>
+                  <c:v>123.98585694038898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.977643280198365</c:v>
+                  <c:v>106.97530951527243</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.52424468144919</c:v>
+                  <c:v>96.330113507766839</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.455586759966366</c:v>
+                  <c:v>89.470948865779192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56.134878471440473</c:v>
+                  <c:v>84.985610214959948</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.392475824971093</c:v>
+                  <c:v>82.05954831815157</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.603124243912944</c:v>
+                  <c:v>80.219395937416067</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.426184929738369</c:v>
+                  <c:v>79.158657964401513</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.660887057782155</c:v>
+                  <c:v>78.542648773187679</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49.182548528359426</c:v>
+                  <c:v>78.378083225624636</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48.910279555264623</c:v>
+                  <c:v>78.615142932090322</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.789640850119817</c:v>
+                  <c:v>79.089086255058319</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.107404074937797</c:v>
+                  <c:v>79.826556394377505</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.479080996221334</c:v>
+                  <c:v>80.798333534779971</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51.308059393520935</c:v>
+                  <c:v>81.888388387727304</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>53.136097923585531</c:v>
+                  <c:v>83.081434018103437</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>55.65437546097359</c:v>
+                  <c:v>84.419816868191546</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>58.196440871464539</c:v>
+                  <c:v>85.846794578367081</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>60.66371047453346</c:v>
+                  <c:v>87.383855429368566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3518,67 +2871,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>101.94510953945939</c:v>
+                  <c:v>174.52361964329577</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151.90876481139983</c:v>
+                  <c:v>156.84864532999174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127.58544787009987</c:v>
+                  <c:v>135.51889763075241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.28028088968408</c:v>
+                  <c:v>118.01802741255341</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.486200430179309</c:v>
+                  <c:v>106.42941421055916</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.696737719528429</c:v>
+                  <c:v>98.314841810643159</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62.573121385423093</c:v>
+                  <c:v>92.546114051792074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.456444679357993</c:v>
+                  <c:v>88.408481665828631</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.594704731972023</c:v>
+                  <c:v>85.433373499099687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.578453320282577</c:v>
+                  <c:v>83.320516127448727</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52.133368267859503</c:v>
+                  <c:v>81.860715516973087</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>51.092396405366664</c:v>
+                  <c:v>80.90545131130726</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50.34546081911855</c:v>
+                  <c:v>80.281938480768488</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.81761457055422</c:v>
+                  <c:v>79.916759686681175</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.456351003293491</c:v>
+                  <c:v>79.826670399426689</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49.223957093129769</c:v>
+                  <c:v>80.025031667283429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.092748960356374</c:v>
+                  <c:v>80.370054028902757</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49.042012437543342</c:v>
+                  <c:v>80.844000559276253</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49.055984714068487</c:v>
+                  <c:v>81.5468715900749</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49.558010743650932</c:v>
+                  <c:v>82.269403296742752</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50.961967375054151</c:v>
+                  <c:v>83.177885097196864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3855,46 +3208,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4450,536 +3763,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>160220</xdr:colOff>
+      <xdr:colOff>261073</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>30061</xdr:rowOff>
+      <xdr:rowOff>63679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
+      <xdr:colOff>168088</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5113,44 +3910,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>29135</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Диаграмма 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>391508</xdr:colOff>
       <xdr:row>70</xdr:row>
@@ -5181,7 +3940,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5219,7 +3978,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5353,8 +4112,8 @@
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
-      <definedName name="IPR_PI_sm3dayatm"/>
-      <definedName name="IPR_Pwf_atma"/>
+      <definedName name="IPR_pi_sm3dayatm"/>
+      <definedName name="IPR_pwf_atma"/>
       <definedName name="MF_p_pipe_atma"/>
       <definedName name="PVT_encode_string"/>
       <definedName name="well_encode_string"/>
@@ -5956,8 +4715,8 @@
   </sheetPr>
   <dimension ref="A1:Z138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -5983,7 +4742,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6195,7 +4954,7 @@
       </c>
       <c r="G21" s="11" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:80,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -6244,7 +5003,7 @@
       </c>
       <c r="G23" s="31" t="str">
         <f>[1]!well_encode_string(Hmes_,Htube_,Udl_,Dcas_,Dtub_,0,,Twf_,Tbuf_)</f>
-        <v>hperf_m:2000.00000;hpump_m:2000.00000;udl_m:0.00000;d_cas_mm:125.00000;dtub_mm:62.00000;dchoke_mm:0.00000;roughness_m:0.00010;tbh_C:80.00000;twh_C:20.00000;</v>
+        <v>hperf_m:2000,00000;hpump_m:2000,00000;udl_m:0,00000;d_cas_mm:125,00000;dtub_mm:62,00000;dchoke_mm:0,00000;roughness_m:0,00010;tbh_C:80,00000;twh_C:20,00000;</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
@@ -6384,7 +5143,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="8">
-        <f>[1]!IPR_PI_sm3dayatm(Qtest_,Pwf_,Pres_,fw_,Pb_)</f>
+        <f>[1]!IPR_pi_sm3dayatm(Qtest_,Pwf_,Pres_,fw_,Pb_)</f>
         <v>0.62097516099356032</v>
       </c>
       <c r="D35" s="15" t="s">
@@ -6472,8 +5231,8 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="J49" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C50,C49,J50,PVRstr1_,theta_,Dtub_,,D50,D49)</f>
-        <v>19.96405131482814</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C49,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D49)</f>
+        <v>19.757708706382058</v>
       </c>
     </row>
     <row r="50" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6486,12 +5245,12 @@
         <v>23</v>
       </c>
       <c r="E50" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C49,C50,E49,PVRstr1_,theta_,Dtub_,,D49,D50)</f>
-        <v>23.849543950267655</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C50-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D50)</f>
+        <v>23.919082974207917</v>
       </c>
       <c r="J50" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C51,C50,J51,PVRstr1_,theta_,Dtub_,,D51,D50)</f>
-        <v>23.810786160067732</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C50,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D50)</f>
+        <v>23.656415294182356</v>
       </c>
     </row>
     <row r="51" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6504,12 +5263,12 @@
         <v>26</v>
       </c>
       <c r="E51" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C50,C51,E50,PVRstr1_,theta_,Dtub_,,D50,D51)</f>
-        <v>27.95022557429936</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C51-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D51)</f>
+        <v>28.118463156250751</v>
       </c>
       <c r="J51" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C52,C51,J52,PVRstr1_,theta_,Dtub_,,D52,D51)</f>
-        <v>27.908778571399534</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C51,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D51)</f>
+        <v>27.835985903200218</v>
       </c>
     </row>
     <row r="52" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6522,12 +5281,12 @@
         <v>29</v>
       </c>
       <c r="E52" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C51,C52,E51,PVRstr1_,theta_,Dtub_,,D51,D52)</f>
-        <v>32.285580366571935</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C52-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D52)</f>
+        <v>32.584405899554511</v>
       </c>
       <c r="J52" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C53,C52,J53,PVRstr1_,theta_,Dtub_,,D53,D52)</f>
-        <v>32.241587802605373</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C52,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D52)</f>
+        <v>32.282890558072431</v>
       </c>
     </row>
     <row r="53" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6540,12 +5299,12 @@
         <v>32</v>
       </c>
       <c r="E53" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C52,C53,E52,PVRstr1_,theta_,Dtub_,,D52,D53)</f>
-        <v>36.837468142523342</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C53-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D53)</f>
+        <v>37.300757654794388</v>
       </c>
       <c r="J53" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C54,C53,J54,PVRstr1_,theta_,Dtub_,,D54,D53)</f>
-        <v>36.791088185595491</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C53,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D53)</f>
+        <v>36.981120808102538</v>
       </c>
     </row>
     <row r="54" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6558,13 +5317,13 @@
         <v>35</v>
       </c>
       <c r="E54" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C53,C54,E53,PVRstr1_,theta_,Dtub_,,D53,D54)</f>
-        <v>41.587027596851925</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C54-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D54)</f>
+        <v>42.249912841712224</v>
       </c>
       <c r="G54" s="30"/>
       <c r="J54" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C55,C54,J55,PVRstr1_,theta_,Dtub_,,D55,D54)</f>
-        <v>41.538425772608051</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C54,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D54)</f>
+        <v>41.913167280819408</v>
       </c>
     </row>
     <row r="55" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6577,12 +5336,12 @@
         <v>38</v>
       </c>
       <c r="E55" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C54,C55,E54,PVRstr1_,theta_,Dtub_,,D54,D55)</f>
-        <v>46.515373778225225</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C55-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D55)</f>
+        <v>47.413569804466761</v>
       </c>
       <c r="J55" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C56,C55,J56,PVRstr1_,theta_,Dtub_,,D56,D55)</f>
-        <v>46.464718259847146</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C55,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D55)</f>
+        <v>47.060785671512278</v>
       </c>
     </row>
     <row r="56" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6595,12 +5354,12 @@
         <v>41</v>
       </c>
       <c r="E56" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C55,C56,E55,PVRstr1_,theta_,Dtub_,,D55,D56)</f>
-        <v>51.604283421037877</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C56-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D56)</f>
+        <v>52.773504295733495</v>
       </c>
       <c r="J56" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C57,C56,J57,PVRstr1_,theta_,Dtub_,,D57,D56)</f>
-        <v>51.551738230869539</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C56,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D56)</f>
+        <v>52.405768811071766</v>
       </c>
     </row>
     <row r="57" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6613,12 +5372,12 @@
         <v>44</v>
       </c>
       <c r="E57" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C56,C57,E56,PVRstr1_,theta_,Dtub_,,D56,D57)</f>
-        <v>56.836315194815732</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C57-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D57)</f>
+        <v>58.311794844606624</v>
       </c>
       <c r="J57" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C58,C57,J58,PVRstr1_,theta_,Dtub_,,D58,D57)</f>
-        <v>56.782039638734553</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C57,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D57)</f>
+        <v>57.930191359304658</v>
       </c>
     </row>
     <row r="58" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6631,12 +5390,12 @@
         <v>47</v>
       </c>
       <c r="E58" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C57,C58,E57,PVRstr1_,theta_,Dtub_,,D57,D58)</f>
-        <v>62.194954206284358</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C58-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D58)</f>
+        <v>64.011080129314465</v>
       </c>
       <c r="J58" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C59,C58,J59,PVRstr1_,theta_,Dtub_,,D59,D58)</f>
-        <v>62.139099806163038</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C58,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D58)</f>
+        <v>63.616664081525528</v>
       </c>
     </row>
     <row r="59" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6649,12 +5408,12 @@
         <v>50</v>
       </c>
       <c r="E59" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C58,C59,E58,PVRstr1_,theta_,Dtub_,,D58,D59)</f>
-        <v>67.664883878217353</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C59-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D59)</f>
+        <v>69.854935735706931</v>
       </c>
       <c r="J59" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C60,C59,J60,PVRstr1_,theta_,Dtub_,,D60,D59)</f>
-        <v>67.607592966640638</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C59,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D59)</f>
+        <v>69.448718690165251</v>
       </c>
     </row>
     <row r="60" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6667,12 +5426,12 @@
         <v>53</v>
       </c>
       <c r="E60" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C59,C60,E59,PVRstr1_,theta_,Dtub_,,D59,D60)</f>
-        <v>73.232048069520502</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C60-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D60)</f>
+        <v>75.828029104132668</v>
       </c>
       <c r="J60" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C61,C60,J61,PVRstr1_,theta_,Dtub_,,D61,D60)</f>
-        <v>73.17345301934003</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C60,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D60)</f>
+        <v>75.410967757019719</v>
       </c>
     </row>
     <row r="61" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6685,12 +5444,12 @@
         <v>56</v>
       </c>
       <c r="E61" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C60,C61,E60,PVRstr1_,theta_,Dtub_,,D60,D61)</f>
-        <v>78.883657079134693</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C61-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D61)</f>
+        <v>81.916203049332694</v>
       </c>
       <c r="J61" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C62,C61,J62,PVRstr1_,theta_,Dtub_,,D62,D61)</f>
-        <v>78.823880021041205</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C61,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D61)</f>
+        <v>81.489192401372563</v>
       </c>
     </row>
     <row r="62" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6703,12 +5462,12 @@
         <v>59</v>
       </c>
       <c r="E62" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C61,C62,E61,PVRstr1_,theta_,Dtub_,,D61,D62)</f>
-        <v>84.608153725441426</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C62-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D62)</f>
+        <v>88.106503443920431</v>
       </c>
       <c r="J62" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C63,C62,J63,PVRstr1_,theta_,Dtub_,,D63,D62)</f>
-        <v>84.547306625093313</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C62,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D62)</f>
+        <v>87.670373323544482</v>
       </c>
     </row>
     <row r="63" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6721,12 +5480,12 @@
         <v>62</v>
       </c>
       <c r="E63" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C62,C63,E62,PVRstr1_,theta_,Dtub_,,D62,D63)</f>
-        <v>90.395152673799075</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C63-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D63)</f>
+        <v>94.387168869531934</v>
       </c>
       <c r="J63" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C64,C63,J64,PVRstr1_,theta_,Dtub_,,D64,D63)</f>
-        <v>90.333337661150381</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C63,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D63)</f>
+        <v>93.942807410468035</v>
       </c>
     </row>
     <row r="64" spans="3:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6739,12 +5498,12 @@
         <v>65</v>
       </c>
       <c r="E64" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C63,C64,E63,PVRstr1_,theta_,Dtub_,,D63,D64)</f>
-        <v>96.235363335292462</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C64-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D64)</f>
+        <v>100.8172836039513</v>
       </c>
       <c r="J64" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C65,C64,J65,PVRstr1_,theta_,Dtub_,,D65,D64)</f>
-        <v>96.172673199993852</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C64,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D64)</f>
+        <v>100.35539446609654</v>
       </c>
     </row>
     <row r="65" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6757,12 +5516,12 @@
         <v>68</v>
       </c>
       <c r="E65" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C64,C65,E64,PVRstr1_,theta_,Dtub_,,D64,D65)</f>
-        <v>102.12050413205137</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C65-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D65)</f>
+        <v>107.43416332544071</v>
       </c>
       <c r="J65" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C66,C65,J66,PVRstr1_,theta_,Dtub_,,D66,D65)</f>
-        <v>102.05702291834253</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C65,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D65)</f>
+        <v>106.95529068281218</v>
       </c>
     </row>
     <row r="66" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6775,12 +5534,12 @@
         <v>71</v>
       </c>
       <c r="E66" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C65,C66,E65,PVRstr1_,theta_,Dtub_,,D65,D66)</f>
-        <v>108.04321379534747</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C66-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D66)</f>
+        <v>114.22659226990068</v>
       </c>
       <c r="J66" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C67,C66,J67,PVRstr1_,theta_,Dtub_,,D67,D66)</f>
-        <v>107.97901744674725</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C66,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D66)</f>
+        <v>113.73146318346359</v>
       </c>
     </row>
     <row r="67" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6793,12 +5552,12 @@
         <v>74</v>
       </c>
       <c r="E67" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C66,C67,E66,PVRstr1_,theta_,Dtub_,,D66,D67)</f>
-        <v>113.99696364476573</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C67-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D67)</f>
+        <v>121.18149417023243</v>
       </c>
       <c r="J67" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C68,C67,J68,PVRstr1_,theta_,Dtub_,,D68,D67)</f>
-        <v>113.93212066276871</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C67,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D67)</f>
+        <v>120.67086657755249</v>
       </c>
     </row>
     <row r="68" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6811,12 +5570,12 @@
         <v>77</v>
       </c>
       <c r="E68" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C67,C68,E67,PVRstr1_,theta_,Dtub_,,D67,D68)</f>
-        <v>119.99263102580271</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C68-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D68)</f>
+        <v>128.2890744619144</v>
       </c>
       <c r="J68" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C69,C68,J69,PVRstr1_,theta_,Dtub_,,D69,D68)</f>
-        <v>119.92667670356218</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,$C$69-C68,$J$69,1,PVRstr1_,theta_,Dtub_,,$D$69,D68)</f>
+        <v>127.76351147587658</v>
       </c>
     </row>
     <row r="69" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -6829,11 +5588,11 @@
         <v>80</v>
       </c>
       <c r="E69" s="29">
-        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C68,C69,E68,PVRstr1_,theta_,Dtub_,,D68,D69)</f>
-        <v>126.06730868002101</v>
+        <f>[1]!MF_p_pipe_atma(Qtest_,fw_,C69-$C$49,$E$49,0,PVRstr1_,theta_,Dtub_,,$D$49,D69)</f>
+        <v>135.53993957236688</v>
       </c>
       <c r="J69" s="27">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.2"/>
@@ -6866,7 +5625,7 @@
       </c>
       <c r="B75" s="26">
         <f>E69</f>
-        <v>126.06730868002101</v>
+        <v>135.53993957236688</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>1</v>
@@ -6912,16 +5671,16 @@
         <v>1</v>
       </c>
       <c r="F78" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E78,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E78,fw_,Pb_)</f>
         <v>248.33333333333334</v>
       </c>
       <c r="G78" s="29">
-        <f>[1]!well_pwf_plin_atma(E78,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>173.07801673762009</v>
+        <f>[1]!well_pwf_plin_atma(E78,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>179.70033152892552</v>
       </c>
       <c r="H78" s="29">
-        <f>[1]!well_pwf_plin_atma(E78,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>180.42346621968539</v>
+        <f>[1]!well_pwf_plin_atma(E78,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>185.92767515061317</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -6930,16 +5689,16 @@
         <v>6.5</v>
       </c>
       <c r="F79" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E79,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E79,fw_,Pb_)</f>
         <v>239.16666666666666</v>
       </c>
       <c r="G79" s="29">
-        <f>[1]!well_pwf_plin_atma(E79,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>164.78898496627406</v>
+        <f>[1]!well_pwf_plin_atma(E79,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>179.0360130099113</v>
       </c>
       <c r="H79" s="29">
-        <f>[1]!well_pwf_plin_atma(E79,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>173.77216482336149</v>
+        <f>[1]!well_pwf_plin_atma(E79,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>185.72992439102936</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -6948,16 +5707,16 @@
         <v>12</v>
       </c>
       <c r="F80" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E80,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E80,fw_,Pb_)</f>
         <v>230</v>
       </c>
       <c r="G80" s="29">
-        <f>[1]!well_pwf_plin_atma(E80,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>158.42028944955655</v>
+        <f>[1]!well_pwf_plin_atma(E80,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>177.4664474619729</v>
       </c>
       <c r="H80" s="29">
-        <f>[1]!well_pwf_plin_atma(E80,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>168.55537494743996</v>
+        <f>[1]!well_pwf_plin_atma(E80,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>184.57515485168386</v>
       </c>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.2">
@@ -6966,16 +5725,16 @@
         <v>17.5</v>
       </c>
       <c r="F81" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E81,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E81,fw_,Pb_)</f>
         <v>220.83333333333334</v>
       </c>
       <c r="G81" s="29">
-        <f>[1]!well_pwf_plin_atma(E81,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>153.33478443244613</v>
+        <f>[1]!well_pwf_plin_atma(E81,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>175.17399496370672</v>
       </c>
       <c r="H81" s="29">
-        <f>[1]!well_pwf_plin_atma(E81,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>164.32217273902523</v>
+        <f>[1]!well_pwf_plin_atma(E81,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>182.76237609926423</v>
       </c>
     </row>
     <row r="82" spans="5:8" x14ac:dyDescent="0.2">
@@ -6984,16 +5743,16 @@
         <v>23</v>
       </c>
       <c r="F82" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E82,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E82,fw_,Pb_)</f>
         <v>211.66666666666666</v>
       </c>
       <c r="G82" s="29">
-        <f>[1]!well_pwf_plin_atma(E82,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>149.17008303444416</v>
+        <f>[1]!well_pwf_plin_atma(E82,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>172.12503968806871</v>
       </c>
       <c r="H82" s="29">
-        <f>[1]!well_pwf_plin_atma(E82,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>160.83054675450714</v>
+        <f>[1]!well_pwf_plin_atma(E82,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>180.30292543347048</v>
       </c>
     </row>
     <row r="83" spans="5:8" x14ac:dyDescent="0.2">
@@ -7002,16 +5761,16 @@
         <v>28.5</v>
       </c>
       <c r="F83" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E83,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E83,fw_,Pb_)</f>
         <v>202.5</v>
       </c>
       <c r="G83" s="29">
-        <f>[1]!well_pwf_plin_atma(E83,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>145.70559722908649</v>
+        <f>[1]!well_pwf_plin_atma(E83,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>168.14334615162906</v>
       </c>
       <c r="H83" s="29">
-        <f>[1]!well_pwf_plin_atma(E83,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>157.9019021965598</v>
+        <f>[1]!well_pwf_plin_atma(E83,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>177.06868034047656</v>
       </c>
     </row>
     <row r="84" spans="5:8" x14ac:dyDescent="0.2">
@@ -7020,16 +5779,16 @@
         <v>34</v>
       </c>
       <c r="F84" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E84,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E84,fw_,Pb_)</f>
         <v>193.33333333333334</v>
       </c>
       <c r="G84" s="29">
-        <f>[1]!well_pwf_plin_atma(E84,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>142.80054613893756</v>
+        <f>[1]!well_pwf_plin_atma(E84,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>162.9670187909332</v>
       </c>
       <c r="H84" s="29">
-        <f>[1]!well_pwf_plin_atma(E84,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>155.41661870420032</v>
+        <f>[1]!well_pwf_plin_atma(E84,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>172.90595501971879</v>
       </c>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.2">
@@ -7038,16 +5797,16 @@
         <v>39.5</v>
       </c>
       <c r="F85" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E85,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E85,fw_,Pb_)</f>
         <v>184.16666666666666</v>
       </c>
       <c r="G85" s="29">
-        <f>[1]!well_pwf_plin_atma(E85,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>140.31498607284021</v>
+        <f>[1]!well_pwf_plin_atma(E85,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>156.1816559864738</v>
       </c>
       <c r="H85" s="29">
-        <f>[1]!well_pwf_plin_atma(E85,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>153.28114892218807</v>
+        <f>[1]!well_pwf_plin_atma(E85,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>167.54756750276974</v>
       </c>
     </row>
     <row r="86" spans="5:8" x14ac:dyDescent="0.2">
@@ -7056,16 +5815,16 @@
         <v>45</v>
       </c>
       <c r="F86" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E86,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E86,fw_,Pb_)</f>
         <v>175</v>
       </c>
       <c r="G86" s="29">
-        <f>[1]!well_pwf_plin_atma(E86,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>138.18491593247703</v>
+        <f>[1]!well_pwf_plin_atma(E86,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>147.57834094602239</v>
       </c>
       <c r="H86" s="29">
-        <f>[1]!well_pwf_plin_atma(E86,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>151.43377094130412</v>
+        <f>[1]!well_pwf_plin_atma(E86,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>160.59447590458342</v>
       </c>
     </row>
     <row r="87" spans="5:8" x14ac:dyDescent="0.2">
@@ -7074,16 +5833,16 @@
         <v>50.5</v>
       </c>
       <c r="F87" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E87,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E87,fw_,Pb_)</f>
         <v>165.83333333333334</v>
       </c>
       <c r="G87" s="29">
-        <f>[1]!well_pwf_plin_atma(E87,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>136.34026373812333</v>
+        <f>[1]!well_pwf_plin_atma(E87,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>140.35743095145818</v>
       </c>
       <c r="H87" s="29">
-        <f>[1]!well_pwf_plin_atma(E87,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>149.82307860613079</v>
+        <f>[1]!well_pwf_plin_atma(E87,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>153.65198786177672</v>
       </c>
     </row>
     <row r="88" spans="5:8" x14ac:dyDescent="0.2">
@@ -7092,16 +5851,16 @@
         <v>56</v>
       </c>
       <c r="F88" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E88,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E88,fw_,Pb_)</f>
         <v>156.66666666666666</v>
       </c>
       <c r="G88" s="29">
-        <f>[1]!well_pwf_plin_atma(E88,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>134.6452653964551</v>
+        <f>[1]!well_pwf_plin_atma(E88,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>137.91880123062811</v>
       </c>
       <c r="H88" s="29">
-        <f>[1]!well_pwf_plin_atma(E88,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>148.41527608758534</v>
+        <f>[1]!well_pwf_plin_atma(E88,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>149.90148051805784</v>
       </c>
     </row>
     <row r="89" spans="5:8" x14ac:dyDescent="0.2">
@@ -7110,16 +5869,16 @@
         <v>61.5</v>
       </c>
       <c r="F89" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E89,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E89,fw_,Pb_)</f>
         <v>147.48120194476127</v>
       </c>
       <c r="G89" s="29">
-        <f>[1]!well_pwf_plin_atma(E89,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>132.95294464685875</v>
+        <f>[1]!well_pwf_plin_atma(E89,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>137.40688590161284</v>
       </c>
       <c r="H89" s="29">
-        <f>[1]!well_pwf_plin_atma(E89,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>147.17543009146564</v>
+        <f>[1]!well_pwf_plin_atma(E89,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>149.43070693194298</v>
       </c>
     </row>
     <row r="90" spans="5:8" x14ac:dyDescent="0.2">
@@ -7128,16 +5887,16 @@
         <v>67</v>
       </c>
       <c r="F90" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E90,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E90,fw_,Pb_)</f>
         <v>137.89948930654069</v>
       </c>
       <c r="G90" s="29">
-        <f>[1]!well_pwf_plin_atma(E90,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>131.55426121298794</v>
+        <f>[1]!well_pwf_plin_atma(E90,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>136.96848966867407</v>
       </c>
       <c r="H90" s="29">
-        <f>[1]!well_pwf_plin_atma(E90,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>146.07513168316441</v>
+        <f>[1]!well_pwf_plin_atma(E90,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>149.02034791015311</v>
       </c>
     </row>
     <row r="91" spans="5:8" x14ac:dyDescent="0.2">
@@ -7146,16 +5905,16 @@
         <v>72.5</v>
       </c>
       <c r="F91" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E91,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E91,fw_,Pb_)</f>
         <v>127.69218142324976</v>
       </c>
       <c r="G91" s="29">
-        <f>[1]!well_pwf_plin_atma(E91,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>130.2098185958645</v>
+        <f>[1]!well_pwf_plin_atma(E91,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>136.59922532366724</v>
       </c>
       <c r="H91" s="29">
-        <f>[1]!well_pwf_plin_atma(E91,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>145.11489376957354</v>
+        <f>[1]!well_pwf_plin_atma(E91,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>148.67544026806425</v>
       </c>
     </row>
     <row r="92" spans="5:8" x14ac:dyDescent="0.2">
@@ -7164,16 +5923,16 @@
         <v>78</v>
       </c>
       <c r="F92" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E92,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E92,fw_,Pb_)</f>
         <v>116.71793901141332</v>
       </c>
       <c r="G92" s="29">
-        <f>[1]!well_pwf_plin_atma(E92,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>129.12249485329889</v>
+        <f>[1]!well_pwf_plin_atma(E92,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>136.28879730681646</v>
       </c>
       <c r="H92" s="29">
-        <f>[1]!well_pwf_plin_atma(E92,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>144.24955299766009</v>
+        <f>[1]!well_pwf_plin_atma(E92,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>148.38294812370185</v>
       </c>
     </row>
     <row r="93" spans="5:8" x14ac:dyDescent="0.2">
@@ -7182,16 +5941,16 @@
         <v>83.5</v>
       </c>
       <c r="F93" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E93,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E93,fw_,Pb_)</f>
         <v>104.77251819000452</v>
       </c>
       <c r="G93" s="29">
-        <f>[1]!well_pwf_plin_atma(E93,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>127.98840039484058</v>
+        <f>[1]!well_pwf_plin_atma(E93,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>136.03326526658881</v>
       </c>
       <c r="H93" s="29">
-        <f>[1]!well_pwf_plin_atma(E93,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>143.48804411732613</v>
+        <f>[1]!well_pwf_plin_atma(E93,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>148.13708449485114</v>
       </c>
     </row>
     <row r="94" spans="5:8" x14ac:dyDescent="0.2">
@@ -7200,16 +5959,16 @@
         <v>89</v>
       </c>
       <c r="F94" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E94,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E94,fw_,Pb_)</f>
         <v>91.540808773895563</v>
       </c>
       <c r="G94" s="29">
-        <f>[1]!well_pwf_plin_atma(E94,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>127.25666512610097</v>
+        <f>[1]!well_pwf_plin_atma(E94,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>135.82886403313378</v>
       </c>
       <c r="H94" s="29">
-        <f>[1]!well_pwf_plin_atma(E94,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>142.80020290709768</v>
+        <f>[1]!well_pwf_plin_atma(E94,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>147.93573318141691</v>
       </c>
     </row>
     <row r="95" spans="5:8" x14ac:dyDescent="0.2">
@@ -7218,16 +5977,16 @@
         <v>94.5</v>
       </c>
       <c r="F95" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E95,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E95,fw_,Pb_)</f>
         <v>76.488188244002203</v>
       </c>
       <c r="G95" s="29">
-        <f>[1]!well_pwf_plin_atma(E95,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>126.21353194607163</v>
+        <f>[1]!well_pwf_plin_atma(E95,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>135.66744169924416</v>
       </c>
       <c r="H95" s="29">
-        <f>[1]!well_pwf_plin_atma(E95,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>142.20973851397235</v>
+        <f>[1]!well_pwf_plin_atma(E95,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>147.77518878199882</v>
       </c>
     </row>
     <row r="96" spans="5:8" x14ac:dyDescent="0.2">
@@ -7236,16 +5995,16 @@
         <v>100</v>
       </c>
       <c r="F96" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E96,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E96,fw_,Pb_)</f>
         <v>58.558230480331133</v>
       </c>
       <c r="G96" s="29">
-        <f>[1]!well_pwf_plin_atma(E96,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>125.6444300865617</v>
+        <f>[1]!well_pwf_plin_atma(E96,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>135.54693887476597</v>
       </c>
       <c r="H96" s="29">
-        <f>[1]!well_pwf_plin_atma(E96,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>141.66057833629336</v>
+        <f>[1]!well_pwf_plin_atma(E96,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>147.64917999620883</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -7254,16 +6013,16 @@
         <v>105.5</v>
       </c>
       <c r="F97" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E97,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E97,fw_,Pb_)</f>
         <v>34.941828987286321</v>
       </c>
       <c r="G97" s="29">
-        <f>[1]!well_pwf_plin_atma(E97,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>124.94728194136816</v>
+        <f>[1]!well_pwf_plin_atma(E97,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>135.46672648245433</v>
       </c>
       <c r="H97" s="29">
-        <f>[1]!well_pwf_plin_atma(E97,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>141.1055264300561</v>
+        <f>[1]!well_pwf_plin_atma(E97,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>147.55866942270262</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -7272,16 +6031,16 @@
         <v>111</v>
       </c>
       <c r="F98" s="29">
-        <f>[1]!IPR_Pwf_atma(PI_1,Pres_,E98,fw_,Pb_)</f>
+        <f>[1]!IPR_pwf_atma(PI_1,Pres_,E98,fw_,Pb_)</f>
         <v>0</v>
       </c>
       <c r="G98" s="29">
-        <f>[1]!well_pwf_plin_atma(E98,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>124.5171542073078</v>
+        <f>[1]!well_pwf_plin_atma(E98,fw_,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>135.42188615076745</v>
       </c>
       <c r="H98" s="29">
-        <f>[1]!well_pwf_plin_atma(E98,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,,1,,,,,,1)</f>
-        <v>140.63550041068413</v>
+        <f>[1]!well_pwf_plin_atma(E98,fw_2,Pbuf_,Pcas_,Wellstr1_,PVRstr1_,0)</f>
+        <v>147.49816486055403</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -7343,15 +6102,15 @@
       </c>
       <c r="G108" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F108,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:10.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:10,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H108" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G108,,1,,,,,,1)</f>
-        <v>75.479647003053429</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G108)</f>
+        <v>165.57980415121389</v>
       </c>
       <c r="I108" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G108,,1,,,,,,1)</f>
-        <v>101.94510953945939</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G108)</f>
+        <v>174.52361964329577</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -7361,15 +6120,15 @@
       </c>
       <c r="G109" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F109,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:50.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:50,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H109" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G109,,1,,,,,,1)</f>
-        <v>138.87964920963614</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G109)</f>
+        <v>145.69559476319762</v>
       </c>
       <c r="I109" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G109,,1,,,,,,1)</f>
-        <v>151.90876481139983</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G109)</f>
+        <v>156.84864532999174</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -7380,15 +6139,15 @@
       </c>
       <c r="G110" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F110,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:100.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:100,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H110" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G110,,1,,,,,,1)</f>
-        <v>110.79366394262878</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G110)</f>
+        <v>123.98585694038898</v>
       </c>
       <c r="I110" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G110,,1,,,,,,1)</f>
-        <v>127.58544787009987</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G110)</f>
+        <v>135.51889763075241</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -7399,15 +6158,15 @@
       </c>
       <c r="G111" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F111,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:150.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:150,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H111" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G111,,1,,,,,,1)</f>
-        <v>83.977643280198365</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G111)</f>
+        <v>106.97530951527243</v>
       </c>
       <c r="I111" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G111,,1,,,,,,1)</f>
-        <v>100.28028088968408</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G111)</f>
+        <v>118.01802741255341</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -7418,15 +6177,15 @@
       </c>
       <c r="G112" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F112,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:200.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:200,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H112" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G112,,1,,,,,,1)</f>
-        <v>67.52424468144919</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G112)</f>
+        <v>96.330113507766839</v>
       </c>
       <c r="I112" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G112,,1,,,,,,1)</f>
-        <v>81.486200430179309</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G112)</f>
+        <v>106.42941421055916</v>
       </c>
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.2">
@@ -7437,15 +6196,15 @@
       </c>
       <c r="G113" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F113,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:250.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:250,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H113" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G113,,1,,,,,,1)</f>
-        <v>60.455586759966366</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G113)</f>
+        <v>89.470948865779192</v>
       </c>
       <c r="I113" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G113,,1,,,,,,1)</f>
-        <v>68.696737719528429</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G113)</f>
+        <v>98.314841810643159</v>
       </c>
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.2">
@@ -7456,15 +6215,15 @@
       </c>
       <c r="G114" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F114,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:300.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:300,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H114" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G114,,1,,,,,,1)</f>
-        <v>56.134878471440473</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G114)</f>
+        <v>84.985610214959948</v>
       </c>
       <c r="I114" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G114,,1,,,,,,1)</f>
-        <v>62.573121385423093</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G114)</f>
+        <v>92.546114051792074</v>
       </c>
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.2">
@@ -7475,15 +6234,15 @@
       </c>
       <c r="G115" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F115,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:350.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:350,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H115" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G115,,1,,,,,,1)</f>
-        <v>53.392475824971093</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G115)</f>
+        <v>82.05954831815157</v>
       </c>
       <c r="I115" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G115,,1,,,,,,1)</f>
-        <v>58.456444679357993</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G115)</f>
+        <v>88.408481665828631</v>
       </c>
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.2">
@@ -7494,15 +6253,15 @@
       </c>
       <c r="G116" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F116,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:400.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:400,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H116" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G116,,1,,,,,,1)</f>
-        <v>51.603124243912944</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G116)</f>
+        <v>80.219395937416067</v>
       </c>
       <c r="I116" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G116,,1,,,,,,1)</f>
-        <v>55.594704731972023</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G116)</f>
+        <v>85.433373499099687</v>
       </c>
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.2">
@@ -7513,15 +6272,15 @@
       </c>
       <c r="G117" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F117,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:450.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:450,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H117" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G117,,1,,,,,,1)</f>
-        <v>50.426184929738369</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G117)</f>
+        <v>79.158657964401513</v>
       </c>
       <c r="I117" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G117,,1,,,,,,1)</f>
-        <v>53.578453320282577</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G117)</f>
+        <v>83.320516127448727</v>
       </c>
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.2">
@@ -7532,15 +6291,15 @@
       </c>
       <c r="G118" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F118,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:500.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:500,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H118" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G118,,1,,,,,,1)</f>
-        <v>49.660887057782155</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G118)</f>
+        <v>78.542648773187679</v>
       </c>
       <c r="I118" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G118,,1,,,,,,1)</f>
-        <v>52.133368267859503</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G118)</f>
+        <v>81.860715516973087</v>
       </c>
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.2">
@@ -7551,15 +6310,15 @@
       </c>
       <c r="G119" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F119,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:550.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:550,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H119" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G119,,1,,,,,,1)</f>
-        <v>49.182548528359426</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G119)</f>
+        <v>78.378083225624636</v>
       </c>
       <c r="I119" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G119,,1,,,,,,1)</f>
-        <v>51.092396405366664</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G119)</f>
+        <v>80.90545131130726</v>
       </c>
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.2">
@@ -7570,15 +6329,15 @@
       </c>
       <c r="G120" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F120,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:600.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:600,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H120" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G120,,1,,,,,,1)</f>
-        <v>48.910279555264623</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G120)</f>
+        <v>78.615142932090322</v>
       </c>
       <c r="I120" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G120,,1,,,,,,1)</f>
-        <v>50.34546081911855</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G120)</f>
+        <v>80.281938480768488</v>
       </c>
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.2">
@@ -7589,15 +6348,15 @@
       </c>
       <c r="G121" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F121,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:650.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:650,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H121" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G121,,1,,,,,,1)</f>
-        <v>48.789640850119817</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G121)</f>
+        <v>79.089086255058319</v>
       </c>
       <c r="I121" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G121,,1,,,,,,1)</f>
-        <v>49.81761457055422</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G121)</f>
+        <v>79.916759686681175</v>
       </c>
     </row>
     <row r="122" spans="3:11" x14ac:dyDescent="0.2">
@@ -7607,15 +6366,15 @@
       </c>
       <c r="G122" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F122,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:700.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:700,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H122" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G122,,1,,,,,,1)</f>
-        <v>49.107404074937797</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G122)</f>
+        <v>79.826556394377505</v>
       </c>
       <c r="I122" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G122,,1,,,,,,1)</f>
-        <v>49.456351003293491</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G122)</f>
+        <v>79.826670399426689</v>
       </c>
     </row>
     <row r="123" spans="3:11" x14ac:dyDescent="0.2">
@@ -7625,15 +6384,15 @@
       </c>
       <c r="G123" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F123,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:750.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:750,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H123" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G123,,1,,,,,,1)</f>
-        <v>49.479080996221334</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G123)</f>
+        <v>80.798333534779971</v>
       </c>
       <c r="I123" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G123,,1,,,,,,1)</f>
-        <v>49.223957093129769</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G123)</f>
+        <v>80.025031667283429</v>
       </c>
     </row>
     <row r="124" spans="3:11" x14ac:dyDescent="0.2">
@@ -7643,15 +6402,15 @@
       </c>
       <c r="G124" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F124,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:800.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:800,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H124" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G124,,1,,,,,,1)</f>
-        <v>51.308059393520935</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G124)</f>
+        <v>81.888388387727304</v>
       </c>
       <c r="I124" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G124,,1,,,,,,1)</f>
-        <v>49.092748960356374</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G124)</f>
+        <v>80.370054028902757</v>
       </c>
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.2">
@@ -7661,15 +6420,15 @@
       </c>
       <c r="G125" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F125,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:850.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:850,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H125" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G125,,1,,,,,,1)</f>
-        <v>53.136097923585531</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G125)</f>
+        <v>83.081434018103437</v>
       </c>
       <c r="I125" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G125,,1,,,,,,1)</f>
-        <v>49.042012437543342</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G125)</f>
+        <v>80.844000559276253</v>
       </c>
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.2">
@@ -7679,15 +6438,15 @@
       </c>
       <c r="G126" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F126,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:900.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:900,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H126" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G126,,1,,,,,,1)</f>
-        <v>55.65437546097359</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G126)</f>
+        <v>84.419816868191546</v>
       </c>
       <c r="I126" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G126,,1,,,,,,1)</f>
-        <v>49.055984714068487</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G126)</f>
+        <v>81.5468715900749</v>
       </c>
     </row>
     <row r="127" spans="3:11" x14ac:dyDescent="0.2">
@@ -7697,15 +6456,15 @@
       </c>
       <c r="G127" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F127,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:950.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:950,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H127" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G127,,1,,,,,,1)</f>
-        <v>58.196440871464539</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G127)</f>
+        <v>85.846794578367081</v>
       </c>
       <c r="I127" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G127,,1,,,,,,1)</f>
-        <v>49.558010743650932</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G127)</f>
+        <v>82.269403296742752</v>
       </c>
       <c r="K127" t="s">
         <v>11</v>
@@ -7718,15 +6477,15 @@
       </c>
       <c r="G128" s="33" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,,Rsb_,F128,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:1000.000;pb_atma:150.000;tres_C:80.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;pksep_atma:-1.000;tksep_C:-1.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,870;gamma_wat:1,000;rsb_m3m3:80,000;rp_m3m3:1000,000;pb_atma:150,000;tres_C:80,000;bob_m3m3:1,200;muob_cP:1,000;PVTcorr:0;ksep_fr:0,000;pksep_atma:-1,000;tksep_C:-1,000;</v>
       </c>
       <c r="H128" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G128,,1,,,,,,1)</f>
-        <v>60.66371047453346</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_,Pbuf_,Pcas_,Wellstr1_,G128)</f>
+        <v>87.383855429368566</v>
       </c>
       <c r="I128" s="29">
-        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G128,,1,,,,,,1)</f>
-        <v>50.961967375054151</v>
+        <f>[1]!well_pwf_plin_atma(Qtest_,fw_3,Pbuf_,Pcas_,Wellstr1_,G128)</f>
+        <v>83.177885097196864</v>
       </c>
     </row>
     <row r="138" spans="11:11" x14ac:dyDescent="0.2">
